--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2266.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2266.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149697482435184</v>
+        <v>1.226658225059509</v>
       </c>
       <c r="B1">
-        <v>2.323723191435095</v>
+        <v>2.778029680252075</v>
       </c>
       <c r="C1">
-        <v>5.691614851776755</v>
+        <v>4.756212711334229</v>
       </c>
       <c r="D1">
-        <v>2.748338080035461</v>
+        <v>2.09923529624939</v>
       </c>
       <c r="E1">
-        <v>1.223245675441384</v>
+        <v>1.157722353935242</v>
       </c>
     </row>
   </sheetData>
